--- a/SEPARATE - Combat Simulator/info.xlsx
+++ b/SEPARATE - Combat Simulator/info.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan\Desktop\Projects\FlaskSimpleRPG\SEPARATE - Combat Simulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC53B8E-3016-402A-9EF8-236736F588F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA374DE-7D40-4D5D-A7B0-B73B57888503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1ECEA975-4B1F-4B3E-A4E4-C2069DCD9051}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1ECEA975-4B1F-4B3E-A4E4-C2069DCD9051}"/>
   </bookViews>
   <sheets>
     <sheet name="goldPerLevel" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Level</t>
   </si>
@@ -62,30 +61,6 @@
   </si>
   <si>
     <t>QuestsToLvl</t>
-  </si>
-  <si>
-    <t>Dmg</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Res1</t>
-  </si>
-  <si>
-    <t>MainStat</t>
-  </si>
-  <si>
-    <t>NewMain</t>
-  </si>
-  <si>
-    <t>NewDmg</t>
-  </si>
-  <si>
-    <t>Armor%</t>
-  </si>
-  <si>
-    <t>CritChce%</t>
   </si>
 </sst>
 </file>
@@ -457,9 +432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9129D6E0-2903-44DD-8D12-D7961A9636C6}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,2954 +3380,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69679075-B8CA-4654-9E1A-BEF6B44B4125}">
-  <dimension ref="A1:I101"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>60</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>2.5</v>
-      </c>
-      <c r="H2">
-        <v>17.5</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>76</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>132</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>7.5</v>
-      </c>
-      <c r="H4">
-        <v>52.5</v>
-      </c>
-      <c r="I4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>74</v>
-      </c>
-      <c r="C5">
-        <v>252</v>
-      </c>
-      <c r="D5">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>25</v>
-      </c>
-      <c r="F5">
-        <v>80</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>70</v>
-      </c>
-      <c r="I5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>85</v>
-      </c>
-      <c r="C6">
-        <v>260</v>
-      </c>
-      <c r="D6">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>25</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>12.5</v>
-      </c>
-      <c r="H6">
-        <v>87.5</v>
-      </c>
-      <c r="I6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>154</v>
-      </c>
-      <c r="C7">
-        <v>492</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>120</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>105</v>
-      </c>
-      <c r="I7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>206</v>
-      </c>
-      <c r="C8">
-        <v>648</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>140</v>
-      </c>
-      <c r="G8">
-        <v>17.5</v>
-      </c>
-      <c r="H8">
-        <v>122.5</v>
-      </c>
-      <c r="I8">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>330</v>
-      </c>
-      <c r="C9">
-        <v>1084</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>160</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>140</v>
-      </c>
-      <c r="I9">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>496</v>
-      </c>
-      <c r="C10">
-        <v>1356</v>
-      </c>
-      <c r="D10">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>180</v>
-      </c>
-      <c r="G10">
-        <v>22.5</v>
-      </c>
-      <c r="H10">
-        <v>157.5</v>
-      </c>
-      <c r="I10">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>610</v>
-      </c>
-      <c r="C11">
-        <v>2060</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>25</v>
-      </c>
-      <c r="F11">
-        <v>200</v>
-      </c>
-      <c r="G11">
-        <v>25</v>
-      </c>
-      <c r="H11">
-        <v>175</v>
-      </c>
-      <c r="I11">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>857</v>
-      </c>
-      <c r="C12">
-        <v>2480</v>
-      </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <v>220</v>
-      </c>
-      <c r="G12">
-        <v>27.5</v>
-      </c>
-      <c r="H12">
-        <v>192.5</v>
-      </c>
-      <c r="I12">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1162</v>
-      </c>
-      <c r="C13">
-        <v>3516</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>240</v>
-      </c>
-      <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>210</v>
-      </c>
-      <c r="I13">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1362</v>
-      </c>
-      <c r="C14">
-        <v>4116</v>
-      </c>
-      <c r="D14">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>260</v>
-      </c>
-      <c r="G14">
-        <v>32.5</v>
-      </c>
-      <c r="H14">
-        <v>227.5</v>
-      </c>
-      <c r="I14">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1774</v>
-      </c>
-      <c r="C15">
-        <v>5548</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>280</v>
-      </c>
-      <c r="G15">
-        <v>35</v>
-      </c>
-      <c r="H15">
-        <v>245</v>
-      </c>
-      <c r="I15">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2260</v>
-      </c>
-      <c r="C16">
-        <v>6360</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>25</v>
-      </c>
-      <c r="F16">
-        <v>300</v>
-      </c>
-      <c r="G16">
-        <v>37.5</v>
-      </c>
-      <c r="H16">
-        <v>262.5</v>
-      </c>
-      <c r="I16">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2570</v>
-      </c>
-      <c r="C17">
-        <v>8252</v>
-      </c>
-      <c r="D17">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>25</v>
-      </c>
-      <c r="F17">
-        <v>320</v>
-      </c>
-      <c r="G17">
-        <v>40</v>
-      </c>
-      <c r="H17">
-        <v>280</v>
-      </c>
-      <c r="I17">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3189</v>
-      </c>
-      <c r="C18">
-        <v>9308</v>
-      </c>
-      <c r="D18">
-        <v>25</v>
-      </c>
-      <c r="E18">
-        <v>25</v>
-      </c>
-      <c r="F18">
-        <v>340</v>
-      </c>
-      <c r="G18">
-        <v>42.5</v>
-      </c>
-      <c r="H18">
-        <v>297.5</v>
-      </c>
-      <c r="I18">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>3898</v>
-      </c>
-      <c r="C19">
-        <v>11724</v>
-      </c>
-      <c r="D19">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>25</v>
-      </c>
-      <c r="F19">
-        <v>360</v>
-      </c>
-      <c r="G19">
-        <v>45</v>
-      </c>
-      <c r="H19">
-        <v>315</v>
-      </c>
-      <c r="I19">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>4342</v>
-      </c>
-      <c r="C20">
-        <v>13056</v>
-      </c>
-      <c r="D20">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>25</v>
-      </c>
-      <c r="F20">
-        <v>380</v>
-      </c>
-      <c r="G20">
-        <v>47.5</v>
-      </c>
-      <c r="H20">
-        <v>332.5</v>
-      </c>
-      <c r="I20">
-        <v>3981</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5210</v>
-      </c>
-      <c r="C21">
-        <v>16060</v>
-      </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>25</v>
-      </c>
-      <c r="F21">
-        <v>400</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>350</v>
-      </c>
-      <c r="I21">
-        <v>4410</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>6184</v>
-      </c>
-      <c r="C22">
-        <v>17700</v>
-      </c>
-      <c r="D22">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>25</v>
-      </c>
-      <c r="F22">
-        <v>420</v>
-      </c>
-      <c r="G22">
-        <v>52.5</v>
-      </c>
-      <c r="H22">
-        <v>367.5</v>
-      </c>
-      <c r="I22">
-        <v>5302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>6786</v>
-      </c>
-      <c r="C23">
-        <v>21356</v>
-      </c>
-      <c r="D23">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>25</v>
-      </c>
-      <c r="F23">
-        <v>440</v>
-      </c>
-      <c r="G23">
-        <v>55</v>
-      </c>
-      <c r="H23">
-        <v>385</v>
-      </c>
-      <c r="I23">
-        <v>5818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>7945</v>
-      </c>
-      <c r="C24">
-        <v>23336</v>
-      </c>
-      <c r="D24">
-        <v>25</v>
-      </c>
-      <c r="E24">
-        <v>25</v>
-      </c>
-      <c r="F24">
-        <v>460</v>
-      </c>
-      <c r="G24">
-        <v>57.5</v>
-      </c>
-      <c r="H24">
-        <v>402.5</v>
-      </c>
-      <c r="I24">
-        <v>6887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>9226</v>
-      </c>
-      <c r="C25">
-        <v>27708</v>
-      </c>
-      <c r="D25">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>25</v>
-      </c>
-      <c r="F25">
-        <v>480</v>
-      </c>
-      <c r="G25">
-        <v>60</v>
-      </c>
-      <c r="H25">
-        <v>420</v>
-      </c>
-      <c r="I25">
-        <v>8074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>10010</v>
-      </c>
-      <c r="C26">
-        <v>30060</v>
-      </c>
-      <c r="D26">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-      <c r="F26">
-        <v>500</v>
-      </c>
-      <c r="G26">
-        <v>62.5</v>
-      </c>
-      <c r="H26">
-        <v>437.5</v>
-      </c>
-      <c r="I26">
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>11502</v>
-      </c>
-      <c r="C27">
-        <v>35212</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>25</v>
-      </c>
-      <c r="F27">
-        <v>520</v>
-      </c>
-      <c r="G27">
-        <v>65</v>
-      </c>
-      <c r="H27">
-        <v>455</v>
-      </c>
-      <c r="I27">
-        <v>10150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>13132</v>
-      </c>
-      <c r="C28">
-        <v>37968</v>
-      </c>
-      <c r="D28">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>540</v>
-      </c>
-      <c r="G28">
-        <v>67.5</v>
-      </c>
-      <c r="H28">
-        <v>472.5</v>
-      </c>
-      <c r="I28">
-        <v>10945</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>14122</v>
-      </c>
-      <c r="C29">
-        <v>43964</v>
-      </c>
-      <c r="D29">
-        <v>25</v>
-      </c>
-      <c r="E29">
-        <v>25</v>
-      </c>
-      <c r="F29">
-        <v>560</v>
-      </c>
-      <c r="G29">
-        <v>70</v>
-      </c>
-      <c r="H29">
-        <v>490</v>
-      </c>
-      <c r="I29">
-        <v>12554</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>15989</v>
-      </c>
-      <c r="C30">
-        <v>47156</v>
-      </c>
-      <c r="D30">
-        <v>25</v>
-      </c>
-      <c r="E30">
-        <v>25</v>
-      </c>
-      <c r="F30">
-        <v>580</v>
-      </c>
-      <c r="G30">
-        <v>72.5</v>
-      </c>
-      <c r="H30">
-        <v>507.5</v>
-      </c>
-      <c r="I30">
-        <v>13466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>18010</v>
-      </c>
-      <c r="C31">
-        <v>54060</v>
-      </c>
-      <c r="D31">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>25</v>
-      </c>
-      <c r="F31">
-        <v>600</v>
-      </c>
-      <c r="G31">
-        <v>75</v>
-      </c>
-      <c r="H31">
-        <v>525</v>
-      </c>
-      <c r="I31">
-        <v>15310</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>19230</v>
-      </c>
-      <c r="C32">
-        <v>57720</v>
-      </c>
-      <c r="D32">
-        <v>25</v>
-      </c>
-      <c r="E32">
-        <v>25</v>
-      </c>
-      <c r="F32">
-        <v>620</v>
-      </c>
-      <c r="G32">
-        <v>77.5</v>
-      </c>
-      <c r="H32">
-        <v>542.5</v>
-      </c>
-      <c r="I32">
-        <v>17308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>21514</v>
-      </c>
-      <c r="C33">
-        <v>65596</v>
-      </c>
-      <c r="D33">
-        <v>25</v>
-      </c>
-      <c r="E33">
-        <v>25</v>
-      </c>
-      <c r="F33">
-        <v>640</v>
-      </c>
-      <c r="G33">
-        <v>80</v>
-      </c>
-      <c r="H33">
-        <v>560</v>
-      </c>
-      <c r="I33">
-        <v>18442</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>23968</v>
-      </c>
-      <c r="C34">
-        <v>69756</v>
-      </c>
-      <c r="D34">
-        <v>25</v>
-      </c>
-      <c r="E34">
-        <v>25</v>
-      </c>
-      <c r="F34">
-        <v>660</v>
-      </c>
-      <c r="G34">
-        <v>82.5</v>
-      </c>
-      <c r="H34">
-        <v>577.5</v>
-      </c>
-      <c r="I34">
-        <v>20701</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>25442</v>
-      </c>
-      <c r="C35">
-        <v>78668</v>
-      </c>
-      <c r="D35">
-        <v>25</v>
-      </c>
-      <c r="E35">
-        <v>25</v>
-      </c>
-      <c r="F35">
-        <v>680</v>
-      </c>
-      <c r="G35">
-        <v>85</v>
-      </c>
-      <c r="H35">
-        <v>595</v>
-      </c>
-      <c r="I35">
-        <v>21974</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>28185</v>
-      </c>
-      <c r="C36">
-        <v>83360</v>
-      </c>
-      <c r="D36">
-        <v>25</v>
-      </c>
-      <c r="E36">
-        <v>25</v>
-      </c>
-      <c r="F36">
-        <v>700</v>
-      </c>
-      <c r="G36">
-        <v>87.5</v>
-      </c>
-      <c r="H36">
-        <v>612.5</v>
-      </c>
-      <c r="I36">
-        <v>24510</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>31114</v>
-      </c>
-      <c r="C37">
-        <v>93372</v>
-      </c>
-      <c r="D37">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>25</v>
-      </c>
-      <c r="F37">
-        <v>720</v>
-      </c>
-      <c r="G37">
-        <v>90</v>
-      </c>
-      <c r="H37">
-        <v>630</v>
-      </c>
-      <c r="I37">
-        <v>27226</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>32866</v>
-      </c>
-      <c r="C38">
-        <v>98628</v>
-      </c>
-      <c r="D38">
-        <v>25</v>
-      </c>
-      <c r="E38">
-        <v>25</v>
-      </c>
-      <c r="F38">
-        <v>740</v>
-      </c>
-      <c r="G38">
-        <v>92.5</v>
-      </c>
-      <c r="H38">
-        <v>647.5</v>
-      </c>
-      <c r="I38">
-        <v>28759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>36110</v>
-      </c>
-      <c r="C39">
-        <v>109804</v>
-      </c>
-      <c r="D39">
-        <v>25</v>
-      </c>
-      <c r="E39">
-        <v>25</v>
-      </c>
-      <c r="F39">
-        <v>760</v>
-      </c>
-      <c r="G39">
-        <v>95</v>
-      </c>
-      <c r="H39">
-        <v>665</v>
-      </c>
-      <c r="I39">
-        <v>31778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>39556</v>
-      </c>
-      <c r="C40">
-        <v>115656</v>
-      </c>
-      <c r="D40">
-        <v>25</v>
-      </c>
-      <c r="E40">
-        <v>25</v>
-      </c>
-      <c r="F40">
-        <v>780</v>
-      </c>
-      <c r="G40">
-        <v>97.5</v>
-      </c>
-      <c r="H40">
-        <v>682.5</v>
-      </c>
-      <c r="I40">
-        <v>33472</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>41610</v>
-      </c>
-      <c r="C41">
-        <v>128060</v>
-      </c>
-      <c r="D41">
-        <v>25</v>
-      </c>
-      <c r="E41">
-        <v>25</v>
-      </c>
-      <c r="F41">
-        <v>800</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-      <c r="H41">
-        <v>700</v>
-      </c>
-      <c r="I41">
-        <v>36810</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>45397</v>
-      </c>
-      <c r="C42">
-        <v>134540</v>
-      </c>
-      <c r="D42">
-        <v>25</v>
-      </c>
-      <c r="E42">
-        <v>25</v>
-      </c>
-      <c r="F42">
-        <v>820</v>
-      </c>
-      <c r="G42">
-        <v>102.5</v>
-      </c>
-      <c r="H42">
-        <v>717.5</v>
-      </c>
-      <c r="I42">
-        <v>38673</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>49402</v>
-      </c>
-      <c r="C43">
-        <v>148236</v>
-      </c>
-      <c r="D43">
-        <v>25</v>
-      </c>
-      <c r="E43">
-        <v>25</v>
-      </c>
-      <c r="F43">
-        <v>840</v>
-      </c>
-      <c r="G43">
-        <v>105</v>
-      </c>
-      <c r="H43">
-        <v>735</v>
-      </c>
-      <c r="I43">
-        <v>42346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>51782</v>
-      </c>
-      <c r="C44">
-        <v>155376</v>
-      </c>
-      <c r="D44">
-        <v>25</v>
-      </c>
-      <c r="E44">
-        <v>25</v>
-      </c>
-      <c r="F44">
-        <v>860</v>
-      </c>
-      <c r="G44">
-        <v>107.5</v>
-      </c>
-      <c r="H44">
-        <v>752.5</v>
-      </c>
-      <c r="I44">
-        <v>46235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>56154</v>
-      </c>
-      <c r="C45">
-        <v>170428</v>
-      </c>
-      <c r="D45">
-        <v>25</v>
-      </c>
-      <c r="E45">
-        <v>25</v>
-      </c>
-      <c r="F45">
-        <v>880</v>
-      </c>
-      <c r="G45">
-        <v>110</v>
-      </c>
-      <c r="H45">
-        <v>770</v>
-      </c>
-      <c r="I45">
-        <v>48410</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>60760</v>
-      </c>
-      <c r="C46">
-        <v>178260</v>
-      </c>
-      <c r="D46">
-        <v>25</v>
-      </c>
-      <c r="E46">
-        <v>25</v>
-      </c>
-      <c r="F46">
-        <v>900</v>
-      </c>
-      <c r="G46">
-        <v>112.5</v>
-      </c>
-      <c r="H46">
-        <v>787.5</v>
-      </c>
-      <c r="I46">
-        <v>52660</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>63490</v>
-      </c>
-      <c r="C47">
-        <v>194732</v>
-      </c>
-      <c r="D47">
-        <v>25</v>
-      </c>
-      <c r="E47">
-        <v>25</v>
-      </c>
-      <c r="F47">
-        <v>920</v>
-      </c>
-      <c r="G47">
-        <v>115</v>
-      </c>
-      <c r="H47">
-        <v>805</v>
-      </c>
-      <c r="I47">
-        <v>55026</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>68489</v>
-      </c>
-      <c r="C48">
-        <v>203288</v>
-      </c>
-      <c r="D48">
-        <v>25</v>
-      </c>
-      <c r="E48">
-        <v>25</v>
-      </c>
-      <c r="F48">
-        <v>940</v>
-      </c>
-      <c r="G48">
-        <v>117.5</v>
-      </c>
-      <c r="H48">
-        <v>822.5</v>
-      </c>
-      <c r="I48">
-        <v>59653</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>73738</v>
-      </c>
-      <c r="C49">
-        <v>221244</v>
-      </c>
-      <c r="D49">
-        <v>25</v>
-      </c>
-      <c r="E49">
-        <v>25</v>
-      </c>
-      <c r="F49">
-        <v>960</v>
-      </c>
-      <c r="G49">
-        <v>120</v>
-      </c>
-      <c r="H49">
-        <v>840</v>
-      </c>
-      <c r="I49">
-        <v>64522</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>76842</v>
-      </c>
-      <c r="C50">
-        <v>230556</v>
-      </c>
-      <c r="D50">
-        <v>25</v>
-      </c>
-      <c r="E50">
-        <v>25</v>
-      </c>
-      <c r="F50">
-        <v>980</v>
-      </c>
-      <c r="G50">
-        <v>122.5</v>
-      </c>
-      <c r="H50">
-        <v>857.5</v>
-      </c>
-      <c r="I50">
-        <v>67238</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>82510</v>
-      </c>
-      <c r="C51">
-        <v>250060</v>
-      </c>
-      <c r="D51">
-        <v>25</v>
-      </c>
-      <c r="E51">
-        <v>25</v>
-      </c>
-      <c r="F51">
-        <v>1000</v>
-      </c>
-      <c r="G51">
-        <v>125</v>
-      </c>
-      <c r="H51">
-        <v>875</v>
-      </c>
-      <c r="I51">
-        <v>72510</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>88444</v>
-      </c>
-      <c r="C52">
-        <v>260160</v>
-      </c>
-      <c r="D52">
-        <v>25</v>
-      </c>
-      <c r="E52">
-        <v>25</v>
-      </c>
-      <c r="F52">
-        <v>1020</v>
-      </c>
-      <c r="G52">
-        <v>127.5</v>
-      </c>
-      <c r="H52">
-        <v>892.5</v>
-      </c>
-      <c r="I52">
-        <v>75439</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>91946</v>
-      </c>
-      <c r="C53">
-        <v>281276</v>
-      </c>
-      <c r="D53">
-        <v>25</v>
-      </c>
-      <c r="E53">
-        <v>25</v>
-      </c>
-      <c r="F53">
-        <v>1040</v>
-      </c>
-      <c r="G53">
-        <v>130</v>
-      </c>
-      <c r="H53">
-        <v>910</v>
-      </c>
-      <c r="I53">
-        <v>81130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>98325</v>
-      </c>
-      <c r="C54">
-        <v>292196</v>
-      </c>
-      <c r="D54">
-        <v>25</v>
-      </c>
-      <c r="E54">
-        <v>25</v>
-      </c>
-      <c r="F54">
-        <v>1060</v>
-      </c>
-      <c r="G54">
-        <v>132.5</v>
-      </c>
-      <c r="H54">
-        <v>927.5</v>
-      </c>
-      <c r="I54">
-        <v>84280</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>104986</v>
-      </c>
-      <c r="C55">
-        <v>314988</v>
-      </c>
-      <c r="D55">
-        <v>25</v>
-      </c>
-      <c r="E55">
-        <v>25</v>
-      </c>
-      <c r="F55">
-        <v>1080</v>
-      </c>
-      <c r="G55">
-        <v>135</v>
-      </c>
-      <c r="H55">
-        <v>945</v>
-      </c>
-      <c r="I55">
-        <v>90406</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>108910</v>
-      </c>
-      <c r="C56">
-        <v>326760</v>
-      </c>
-      <c r="D56">
-        <v>25</v>
-      </c>
-      <c r="E56">
-        <v>25</v>
-      </c>
-      <c r="F56">
-        <v>1100</v>
-      </c>
-      <c r="G56">
-        <v>137.5</v>
-      </c>
-      <c r="H56">
-        <v>962.5</v>
-      </c>
-      <c r="I56">
-        <v>96810</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>116042</v>
-      </c>
-      <c r="C57">
-        <v>351292</v>
-      </c>
-      <c r="D57">
-        <v>25</v>
-      </c>
-      <c r="E57">
-        <v>25</v>
-      </c>
-      <c r="F57">
-        <v>1120</v>
-      </c>
-      <c r="G57">
-        <v>140</v>
-      </c>
-      <c r="H57">
-        <v>980</v>
-      </c>
-      <c r="I57">
-        <v>100362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>123472</v>
-      </c>
-      <c r="C58">
-        <v>363948</v>
-      </c>
-      <c r="D58">
-        <v>25</v>
-      </c>
-      <c r="E58">
-        <v>25</v>
-      </c>
-      <c r="F58">
-        <v>1140</v>
-      </c>
-      <c r="G58">
-        <v>142.5</v>
-      </c>
-      <c r="H58">
-        <v>997.5</v>
-      </c>
-      <c r="I58">
-        <v>107227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>127842</v>
-      </c>
-      <c r="C59">
-        <v>390284</v>
-      </c>
-      <c r="D59">
-        <v>25</v>
-      </c>
-      <c r="E59">
-        <v>25</v>
-      </c>
-      <c r="F59">
-        <v>1160</v>
-      </c>
-      <c r="G59">
-        <v>145</v>
-      </c>
-      <c r="H59">
-        <v>1015</v>
-      </c>
-      <c r="I59">
-        <v>111022</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>135769</v>
-      </c>
-      <c r="C60">
-        <v>403856</v>
-      </c>
-      <c r="D60">
-        <v>25</v>
-      </c>
-      <c r="E60">
-        <v>25</v>
-      </c>
-      <c r="F60">
-        <v>1180</v>
-      </c>
-      <c r="G60">
-        <v>147.5</v>
-      </c>
-      <c r="H60">
-        <v>1032.5</v>
-      </c>
-      <c r="I60">
-        <v>118364</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>144010</v>
-      </c>
-      <c r="C61">
-        <v>432060</v>
-      </c>
-      <c r="D61">
-        <v>25</v>
-      </c>
-      <c r="E61">
-        <v>25</v>
-      </c>
-      <c r="F61">
-        <v>1200</v>
-      </c>
-      <c r="G61">
-        <v>150</v>
-      </c>
-      <c r="H61">
-        <v>1050</v>
-      </c>
-      <c r="I61">
-        <v>126010</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>148850</v>
-      </c>
-      <c r="C62">
-        <v>446580</v>
-      </c>
-      <c r="D62">
-        <v>25</v>
-      </c>
-      <c r="E62">
-        <v>25</v>
-      </c>
-      <c r="F62">
-        <v>1220</v>
-      </c>
-      <c r="G62">
-        <v>152.5</v>
-      </c>
-      <c r="H62">
-        <v>1067.5</v>
-      </c>
-      <c r="I62">
-        <v>130245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>157614</v>
-      </c>
-      <c r="C63">
-        <v>476716</v>
-      </c>
-      <c r="D63">
-        <v>25</v>
-      </c>
-      <c r="E63">
-        <v>25</v>
-      </c>
-      <c r="F63">
-        <v>1240</v>
-      </c>
-      <c r="G63">
-        <v>155</v>
-      </c>
-      <c r="H63">
-        <v>1085</v>
-      </c>
-      <c r="I63">
-        <v>138394</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>166708</v>
-      </c>
-      <c r="C64">
-        <v>492216</v>
-      </c>
-      <c r="D64">
-        <v>25</v>
-      </c>
-      <c r="E64">
-        <v>25</v>
-      </c>
-      <c r="F64">
-        <v>1260</v>
-      </c>
-      <c r="G64">
-        <v>157.5</v>
-      </c>
-      <c r="H64">
-        <v>1102.5</v>
-      </c>
-      <c r="I64">
-        <v>142894</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>172042</v>
-      </c>
-      <c r="C65">
-        <v>524348</v>
-      </c>
-      <c r="D65">
-        <v>25</v>
-      </c>
-      <c r="E65">
-        <v>25</v>
-      </c>
-      <c r="F65">
-        <v>1280</v>
-      </c>
-      <c r="G65">
-        <v>160</v>
-      </c>
-      <c r="H65">
-        <v>1120</v>
-      </c>
-      <c r="I65">
-        <v>151562</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>181685</v>
-      </c>
-      <c r="C66">
-        <v>540860</v>
-      </c>
-      <c r="D66">
-        <v>25</v>
-      </c>
-      <c r="E66">
-        <v>25</v>
-      </c>
-      <c r="F66">
-        <v>1300</v>
-      </c>
-      <c r="G66">
-        <v>162.5</v>
-      </c>
-      <c r="H66">
-        <v>1137.5</v>
-      </c>
-      <c r="I66">
-        <v>156335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>191674</v>
-      </c>
-      <c r="C67">
-        <v>575052</v>
-      </c>
-      <c r="D67">
-        <v>25</v>
-      </c>
-      <c r="E67">
-        <v>25</v>
-      </c>
-      <c r="F67">
-        <v>1320</v>
-      </c>
-      <c r="G67">
-        <v>165</v>
-      </c>
-      <c r="H67">
-        <v>1155</v>
-      </c>
-      <c r="I67">
-        <v>165538</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>197526</v>
-      </c>
-      <c r="C68">
-        <v>592608</v>
-      </c>
-      <c r="D68">
-        <v>25</v>
-      </c>
-      <c r="E68">
-        <v>25</v>
-      </c>
-      <c r="F68">
-        <v>1340</v>
-      </c>
-      <c r="G68">
-        <v>167.5</v>
-      </c>
-      <c r="H68">
-        <v>1172.5</v>
-      </c>
-      <c r="I68">
-        <v>175081</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>208090</v>
-      </c>
-      <c r="C69">
-        <v>628924</v>
-      </c>
-      <c r="D69">
-        <v>25</v>
-      </c>
-      <c r="E69">
-        <v>25</v>
-      </c>
-      <c r="F69">
-        <v>1360</v>
-      </c>
-      <c r="G69">
-        <v>170</v>
-      </c>
-      <c r="H69">
-        <v>1190</v>
-      </c>
-      <c r="I69">
-        <v>180346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>219016</v>
-      </c>
-      <c r="C70">
-        <v>647556</v>
-      </c>
-      <c r="D70">
-        <v>25</v>
-      </c>
-      <c r="E70">
-        <v>25</v>
-      </c>
-      <c r="F70">
-        <v>1380</v>
-      </c>
-      <c r="G70">
-        <v>172.5</v>
-      </c>
-      <c r="H70">
-        <v>1207.5</v>
-      </c>
-      <c r="I70">
-        <v>190450</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>225410</v>
-      </c>
-      <c r="C71">
-        <v>686060</v>
-      </c>
-      <c r="D71">
-        <v>25</v>
-      </c>
-      <c r="E71">
-        <v>25</v>
-      </c>
-      <c r="F71">
-        <v>1400</v>
-      </c>
-      <c r="G71">
-        <v>175</v>
-      </c>
-      <c r="H71">
-        <v>1225</v>
-      </c>
-      <c r="I71">
-        <v>196010</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>236937</v>
-      </c>
-      <c r="C72">
-        <v>705800</v>
-      </c>
-      <c r="D72">
-        <v>25</v>
-      </c>
-      <c r="E72">
-        <v>25</v>
-      </c>
-      <c r="F72">
-        <v>1420</v>
-      </c>
-      <c r="G72">
-        <v>177.5</v>
-      </c>
-      <c r="H72">
-        <v>1242.5</v>
-      </c>
-      <c r="I72">
-        <v>206691</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>248842</v>
-      </c>
-      <c r="C73">
-        <v>746556</v>
-      </c>
-      <c r="D73">
-        <v>25</v>
-      </c>
-      <c r="E73">
-        <v>25</v>
-      </c>
-      <c r="F73">
-        <v>1440</v>
-      </c>
-      <c r="G73">
-        <v>180</v>
-      </c>
-      <c r="H73">
-        <v>1260</v>
-      </c>
-      <c r="I73">
-        <v>217738</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>255802</v>
-      </c>
-      <c r="C74">
-        <v>767436</v>
-      </c>
-      <c r="D74">
-        <v>25</v>
-      </c>
-      <c r="E74">
-        <v>25</v>
-      </c>
-      <c r="F74">
-        <v>1460</v>
-      </c>
-      <c r="G74">
-        <v>182.5</v>
-      </c>
-      <c r="H74">
-        <v>1277.5</v>
-      </c>
-      <c r="I74">
-        <v>223828</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>268334</v>
-      </c>
-      <c r="C75">
-        <v>810508</v>
-      </c>
-      <c r="D75">
-        <v>25</v>
-      </c>
-      <c r="E75">
-        <v>25</v>
-      </c>
-      <c r="F75">
-        <v>1480</v>
-      </c>
-      <c r="G75">
-        <v>185</v>
-      </c>
-      <c r="H75">
-        <v>1295</v>
-      </c>
-      <c r="I75">
-        <v>235478</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>281260</v>
-      </c>
-      <c r="C76">
-        <v>832560</v>
-      </c>
-      <c r="D76">
-        <v>25</v>
-      </c>
-      <c r="E76">
-        <v>25</v>
-      </c>
-      <c r="F76">
-        <v>1500</v>
-      </c>
-      <c r="G76">
-        <v>187.5</v>
-      </c>
-      <c r="H76">
-        <v>1312.5</v>
-      </c>
-      <c r="I76">
-        <v>241885</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>288810</v>
-      </c>
-      <c r="C77">
-        <v>878012</v>
-      </c>
-      <c r="D77">
-        <v>25</v>
-      </c>
-      <c r="E77">
-        <v>25</v>
-      </c>
-      <c r="F77">
-        <v>1520</v>
-      </c>
-      <c r="G77">
-        <v>190</v>
-      </c>
-      <c r="H77">
-        <v>1330</v>
-      </c>
-      <c r="I77">
-        <v>254154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>302389</v>
-      </c>
-      <c r="C78">
-        <v>901268</v>
-      </c>
-      <c r="D78">
-        <v>25</v>
-      </c>
-      <c r="E78">
-        <v>25</v>
-      </c>
-      <c r="F78">
-        <v>1540</v>
-      </c>
-      <c r="G78">
-        <v>192.5</v>
-      </c>
-      <c r="H78">
-        <v>1347.5</v>
-      </c>
-      <c r="I78">
-        <v>260886</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>316378</v>
-      </c>
-      <c r="C79">
-        <v>949164</v>
-      </c>
-      <c r="D79">
-        <v>25</v>
-      </c>
-      <c r="E79">
-        <v>25</v>
-      </c>
-      <c r="F79">
-        <v>1560</v>
-      </c>
-      <c r="G79">
-        <v>195</v>
-      </c>
-      <c r="H79">
-        <v>1365</v>
-      </c>
-      <c r="I79">
-        <v>273790</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>324542</v>
-      </c>
-      <c r="C80">
-        <v>973656</v>
-      </c>
-      <c r="D80">
-        <v>25</v>
-      </c>
-      <c r="E80">
-        <v>25</v>
-      </c>
-      <c r="F80">
-        <v>1580</v>
-      </c>
-      <c r="G80">
-        <v>197.5</v>
-      </c>
-      <c r="H80">
-        <v>1382.5</v>
-      </c>
-      <c r="I80">
-        <v>287096</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>339210</v>
-      </c>
-      <c r="C81">
-        <v>1024060</v>
-      </c>
-      <c r="D81">
-        <v>25</v>
-      </c>
-      <c r="E81">
-        <v>25</v>
-      </c>
-      <c r="F81">
-        <v>1600</v>
-      </c>
-      <c r="G81">
-        <v>200</v>
-      </c>
-      <c r="H81">
-        <v>1400</v>
-      </c>
-      <c r="I81">
-        <v>294410</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>354304</v>
-      </c>
-      <c r="C82">
-        <v>1049820</v>
-      </c>
-      <c r="D82">
-        <v>25</v>
-      </c>
-      <c r="E82">
-        <v>25</v>
-      </c>
-      <c r="F82">
-        <v>1620</v>
-      </c>
-      <c r="G82">
-        <v>202.5</v>
-      </c>
-      <c r="H82">
-        <v>1417.5</v>
-      </c>
-      <c r="I82">
-        <v>308377</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>363106</v>
-      </c>
-      <c r="C83">
-        <v>1102796</v>
-      </c>
-      <c r="D83">
-        <v>25</v>
-      </c>
-      <c r="E83">
-        <v>25</v>
-      </c>
-      <c r="F83">
-        <v>1640</v>
-      </c>
-      <c r="G83">
-        <v>205</v>
-      </c>
-      <c r="H83">
-        <v>1435</v>
-      </c>
-      <c r="I83">
-        <v>316038</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>378905</v>
-      </c>
-      <c r="C84">
-        <v>1129856</v>
-      </c>
-      <c r="D84">
-        <v>25</v>
-      </c>
-      <c r="E84">
-        <v>25</v>
-      </c>
-      <c r="F84">
-        <v>1660</v>
-      </c>
-      <c r="G84">
-        <v>207.5</v>
-      </c>
-      <c r="H84">
-        <v>1452.5</v>
-      </c>
-      <c r="I84">
-        <v>330682</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>395146</v>
-      </c>
-      <c r="C85">
-        <v>1185468</v>
-      </c>
-      <c r="D85">
-        <v>25</v>
-      </c>
-      <c r="E85">
-        <v>25</v>
-      </c>
-      <c r="F85">
-        <v>1680</v>
-      </c>
-      <c r="G85">
-        <v>210</v>
-      </c>
-      <c r="H85">
-        <v>1470</v>
-      </c>
-      <c r="I85">
-        <v>345754</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>404610</v>
-      </c>
-      <c r="C86">
-        <v>1213860</v>
-      </c>
-      <c r="D86">
-        <v>25</v>
-      </c>
-      <c r="E86">
-        <v>25</v>
-      </c>
-      <c r="F86">
-        <v>1700</v>
-      </c>
-      <c r="G86">
-        <v>212.5</v>
-      </c>
-      <c r="H86">
-        <v>1487.5</v>
-      </c>
-      <c r="I86">
-        <v>354035</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>421582</v>
-      </c>
-      <c r="C87">
-        <v>1272172</v>
-      </c>
-      <c r="D87">
-        <v>25</v>
-      </c>
-      <c r="E87">
-        <v>25</v>
-      </c>
-      <c r="F87">
-        <v>1720</v>
-      </c>
-      <c r="G87">
-        <v>215</v>
-      </c>
-      <c r="H87">
-        <v>1505</v>
-      </c>
-      <c r="I87">
-        <v>369810</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>439012</v>
-      </c>
-      <c r="C88">
-        <v>1301928</v>
-      </c>
-      <c r="D88">
-        <v>25</v>
-      </c>
-      <c r="E88">
-        <v>25</v>
-      </c>
-      <c r="F88">
-        <v>1740</v>
-      </c>
-      <c r="G88">
-        <v>217.5</v>
-      </c>
-      <c r="H88">
-        <v>1522.5</v>
-      </c>
-      <c r="I88">
-        <v>378460</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>449162</v>
-      </c>
-      <c r="C89">
-        <v>1363004</v>
-      </c>
-      <c r="D89">
-        <v>25</v>
-      </c>
-      <c r="E89">
-        <v>25</v>
-      </c>
-      <c r="F89">
-        <v>1760</v>
-      </c>
-      <c r="G89">
-        <v>220</v>
-      </c>
-      <c r="H89">
-        <v>1540</v>
-      </c>
-      <c r="I89">
-        <v>394954</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>467349</v>
-      </c>
-      <c r="C90">
-        <v>1394156</v>
-      </c>
-      <c r="D90">
-        <v>25</v>
-      </c>
-      <c r="E90">
-        <v>25</v>
-      </c>
-      <c r="F90">
-        <v>1780</v>
-      </c>
-      <c r="G90">
-        <v>222.5</v>
-      </c>
-      <c r="H90">
-        <v>1557.5</v>
-      </c>
-      <c r="I90">
-        <v>403981</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>486010</v>
-      </c>
-      <c r="C91">
-        <v>1458060</v>
-      </c>
-      <c r="D91">
-        <v>25</v>
-      </c>
-      <c r="E91">
-        <v>25</v>
-      </c>
-      <c r="F91">
-        <v>1800</v>
-      </c>
-      <c r="G91">
-        <v>225</v>
-      </c>
-      <c r="H91">
-        <v>1575</v>
-      </c>
-      <c r="I91">
-        <v>421210</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>496870</v>
-      </c>
-      <c r="C92">
-        <v>1490640</v>
-      </c>
-      <c r="D92">
-        <v>25</v>
-      </c>
-      <c r="E92">
-        <v>25</v>
-      </c>
-      <c r="F92">
-        <v>1820</v>
-      </c>
-      <c r="G92">
-        <v>227.5</v>
-      </c>
-      <c r="H92">
-        <v>1592.5</v>
-      </c>
-      <c r="I92">
-        <v>438903</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>516314</v>
-      </c>
-      <c r="C93">
-        <v>1557436</v>
-      </c>
-      <c r="D93">
-        <v>25</v>
-      </c>
-      <c r="E93">
-        <v>25</v>
-      </c>
-      <c r="F93">
-        <v>1840</v>
-      </c>
-      <c r="G93">
-        <v>230</v>
-      </c>
-      <c r="H93">
-        <v>1610</v>
-      </c>
-      <c r="I93">
-        <v>448602</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>536248</v>
-      </c>
-      <c r="C94">
-        <v>1591476</v>
-      </c>
-      <c r="D94">
-        <v>25</v>
-      </c>
-      <c r="E94">
-        <v>25</v>
-      </c>
-      <c r="F94">
-        <v>1860</v>
-      </c>
-      <c r="G94">
-        <v>232.5</v>
-      </c>
-      <c r="H94">
-        <v>1627.5</v>
-      </c>
-      <c r="I94">
-        <v>467056</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>547842</v>
-      </c>
-      <c r="C95">
-        <v>1661228</v>
-      </c>
-      <c r="D95">
-        <v>25</v>
-      </c>
-      <c r="E95">
-        <v>25</v>
-      </c>
-      <c r="F95">
-        <v>1880</v>
-      </c>
-      <c r="G95">
-        <v>235</v>
-      </c>
-      <c r="H95">
-        <v>1645</v>
-      </c>
-      <c r="I95">
-        <v>477154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>568585</v>
-      </c>
-      <c r="C96">
-        <v>1696760</v>
-      </c>
-      <c r="D96">
-        <v>25</v>
-      </c>
-      <c r="E96">
-        <v>25</v>
-      </c>
-      <c r="F96">
-        <v>1900</v>
-      </c>
-      <c r="G96">
-        <v>237.5</v>
-      </c>
-      <c r="H96">
-        <v>1662.5</v>
-      </c>
-      <c r="I96">
-        <v>496385</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>589834</v>
-      </c>
-      <c r="C97">
-        <v>1769532</v>
-      </c>
-      <c r="D97">
-        <v>25</v>
-      </c>
-      <c r="E97">
-        <v>25</v>
-      </c>
-      <c r="F97">
-        <v>1920</v>
-      </c>
-      <c r="G97">
-        <v>240</v>
-      </c>
-      <c r="H97">
-        <v>1680</v>
-      </c>
-      <c r="I97">
-        <v>516106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>602186</v>
-      </c>
-      <c r="C98">
-        <v>1806588</v>
-      </c>
-      <c r="D98">
-        <v>25</v>
-      </c>
-      <c r="E98">
-        <v>25</v>
-      </c>
-      <c r="F98">
-        <v>1940</v>
-      </c>
-      <c r="G98">
-        <v>242.5</v>
-      </c>
-      <c r="H98">
-        <v>1697.5</v>
-      </c>
-      <c r="I98">
-        <v>526914</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>624270</v>
-      </c>
-      <c r="C99">
-        <v>1882444</v>
-      </c>
-      <c r="D99">
-        <v>25</v>
-      </c>
-      <c r="E99">
-        <v>25</v>
-      </c>
-      <c r="F99">
-        <v>1960</v>
-      </c>
-      <c r="G99">
-        <v>245</v>
-      </c>
-      <c r="H99">
-        <v>1715</v>
-      </c>
-      <c r="I99">
-        <v>547438</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>646876</v>
-      </c>
-      <c r="C100">
-        <v>1921056</v>
-      </c>
-      <c r="D100">
-        <v>25</v>
-      </c>
-      <c r="E100">
-        <v>25</v>
-      </c>
-      <c r="F100">
-        <v>1980</v>
-      </c>
-      <c r="G100">
-        <v>247.5</v>
-      </c>
-      <c r="H100">
-        <v>1732.5</v>
-      </c>
-      <c r="I100">
-        <v>558667</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>660010</v>
-      </c>
-      <c r="C101">
-        <v>2000060</v>
-      </c>
-      <c r="D101">
-        <v>25</v>
-      </c>
-      <c r="E101">
-        <v>25</v>
-      </c>
-      <c r="F101">
-        <v>2000</v>
-      </c>
-      <c r="G101">
-        <v>250</v>
-      </c>
-      <c r="H101">
-        <v>1750</v>
-      </c>
-      <c r="I101">
-        <v>580010</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>